--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">22R 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,8,10,12,14,16,18,24,29,30</t>
+    <t xml:space="preserve">R3,8,10,12,14,16,17,22,27,28</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -280,13 +280,7 @@
     <t xml:space="preserve">2K2 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R17,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1K 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19,21,25,27</t>
+    <t xml:space="preserve">R18,20,23,25</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -295,13 +289,13 @@
     <t xml:space="preserve">10R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R20,26</t>
+    <t xml:space="preserve">R19,24</t>
   </si>
   <si>
     <t xml:space="preserve">3.3R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R22,28</t>
+    <t xml:space="preserve">R21,26</t>
   </si>
   <si>
     <t xml:space="preserve">10R 5%</t>
@@ -458,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -973,31 +967,32 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>11</v>
+      <c r="B33" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -1012,68 +1007,53 @@
         <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>33</v>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
+      <c r="D38" s="4"/>
+      <c r="E38" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1086,8 +1066,8 @@
     <hyperlink ref="E11" r:id="rId7" display="link"/>
     <hyperlink ref="E14" r:id="rId8" display="link"/>
     <hyperlink ref="E15" r:id="rId9" display="link"/>
-    <hyperlink ref="E38" r:id="rId10" display="link"/>
-    <hyperlink ref="E39" r:id="rId11" display="angie@szomk.com.cn"/>
+    <hyperlink ref="E37" r:id="rId10" display="link"/>
+    <hyperlink ref="E38" r:id="rId11" display="angie@szomk.com.cn"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -241,7 +241,7 @@
     <t xml:space="preserve">22R 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,8,10,12,14,16,17,22,27,28</t>
+    <t xml:space="preserve">R3,8,10,12,14,16,17,24,31,32</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">2K2 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R18,20,23,25</t>
+    <t xml:space="preserve">R18,20,25,27</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -289,13 +289,19 @@
     <t xml:space="preserve">10R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R19,24</t>
+    <t xml:space="preserve">R19,26</t>
   </si>
   <si>
     <t xml:space="preserve">3.3R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R21,26</t>
+    <t xml:space="preserve">R21,22,28,29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50R 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23,30</t>
   </si>
   <si>
     <t xml:space="preserve">10R 5%</t>
@@ -452,10 +458,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -595,9 +601,7 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -992,7 +996,7 @@
         <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -1001,73 +1005,87 @@
         <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="0"/>
+      <c r="C40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="link"/>
     <hyperlink ref="E4" r:id="rId2" display="link"/>
     <hyperlink ref="E5" r:id="rId3" display="link"/>
-    <hyperlink ref="E8" r:id="rId4" display="link"/>
-    <hyperlink ref="E9" r:id="rId5" display="link"/>
-    <hyperlink ref="E10" r:id="rId6" display="link"/>
-    <hyperlink ref="E11" r:id="rId7" display="link"/>
-    <hyperlink ref="E14" r:id="rId8" display="link"/>
-    <hyperlink ref="E15" r:id="rId9" display="link"/>
-    <hyperlink ref="E37" r:id="rId10" display="link"/>
-    <hyperlink ref="E38" r:id="rId11" display="angie@szomk.com.cn"/>
+    <hyperlink ref="E9" r:id="rId4" display="link"/>
+    <hyperlink ref="E10" r:id="rId5" display="link"/>
+    <hyperlink ref="E11" r:id="rId6" display="link"/>
+    <hyperlink ref="E14" r:id="rId7" display="link"/>
+    <hyperlink ref="E15" r:id="rId8" display="link"/>
+    <hyperlink ref="E38" r:id="rId9" display="link"/>
+    <hyperlink ref="E39" r:id="rId10" display="angie@szomk.com.cn"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -73,7 +73,10 @@
     <t xml:space="preserve">SM-20</t>
   </si>
   <si>
-    <t xml:space="preserve">D1,2</t>
+    <t xml:space="preserve">D1,2,4,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">B5817W</t>
@@ -281,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">R18,20,25,27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">10R 1%</t>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -559,62 +559,62 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
@@ -622,16 +622,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>9</v>
@@ -639,16 +639,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
@@ -656,44 +656,44 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>9</v>
@@ -701,16 +701,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>9</v>
@@ -718,270 +718,270 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -996,7 +996,7 @@
         <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -1005,13 +1005,13 @@
         <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -1026,7 +1026,7 @@
         <v>94</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36" s="4"/>
     </row>
@@ -1035,7 +1035,7 @@
         <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>96</v>
@@ -1066,7 +1066,7 @@
         <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>101</v>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -262,13 +262,13 @@
     <t xml:space="preserve">R5</t>
   </si>
   <si>
-    <t xml:space="preserve">115K 1%</t>
+    <t xml:space="preserve">115K 1% (120K)</t>
   </si>
   <si>
     <t xml:space="preserve">R6</t>
   </si>
   <si>
-    <t xml:space="preserve">33K 1%</t>
+    <t xml:space="preserve">33K 1% (36K)</t>
   </si>
   <si>
     <t xml:space="preserve">R7,9,11</t>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -262,13 +262,13 @@
     <t xml:space="preserve">R5</t>
   </si>
   <si>
-    <t xml:space="preserve">115K 1% (120K)</t>
+    <t xml:space="preserve">115K 1% (120K) (110K)</t>
   </si>
   <si>
     <t xml:space="preserve">R6</t>
   </si>
   <si>
-    <t xml:space="preserve">33K 1% (36K)</t>
+    <t xml:space="preserve">33K 1% (36K) (33K)</t>
   </si>
   <si>
     <t xml:space="preserve">R7,9,11</t>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">SOT23-6</t>
   </si>
   <si>
+    <t xml:space="preserve">AP63201 ??</t>
+  </si>
+  <si>
     <t xml:space="preserve">IC3,4</t>
   </si>
   <si>
@@ -73,7 +76,7 @@
     <t xml:space="preserve">SM-20</t>
   </si>
   <si>
-    <t xml:space="preserve">D1,2,4,5</t>
+    <t xml:space="preserve">D1,2,3,4</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -88,12 +91,6 @@
     <t xml:space="preserve">REFERENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BZT52C3V9</t>
-  </si>
-  <si>
     <t xml:space="preserve">LED1</t>
   </si>
   <si>
@@ -166,10 +163,7 @@
     <t xml:space="preserve">L1</t>
   </si>
   <si>
-    <t xml:space="preserve">CDRH74R 6.8UH INDUCTOR 7.3X7.3X4MM SHIELDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0630 SIZE SHIELDED REFERENCE</t>
+    <t xml:space="preserve">CDRH127R 6.8UH INDUCTOR 12X12MM SHIELDED</t>
   </si>
   <si>
     <t xml:space="preserve">L2,3</t>
@@ -184,19 +178,19 @@
     <t xml:space="preserve">(150R @100MHZ) REFERENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">C1,8,17,22,25</t>
+    <t xml:space="preserve">C1,8,21,22,27,30</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7UF X5R/X7R</t>
+    <t xml:space="preserve">10UF X5R/X7R</t>
   </si>
   <si>
     <t xml:space="preserve">0603</t>
   </si>
   <si>
-    <t xml:space="preserve">C2,5,7,11,14,16,18,19,20,21,23,26</t>
+    <t xml:space="preserve">C2,5,7,10,12,15,16,18,19,20,23,24,25,26,28,29,31</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -211,7 +205,7 @@
     <t xml:space="preserve">22PF X5R/X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C6,24,27</t>
+    <t xml:space="preserve">C6,</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -220,19 +214,19 @@
     <t xml:space="preserve">1UF X5R/X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C9,12,13</t>
+    <t xml:space="preserve">C9,13,14</t>
   </si>
   <si>
     <t xml:space="preserve">22UF X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C10</t>
+    <t xml:space="preserve">C11</t>
   </si>
   <si>
     <t xml:space="preserve">100PF X5R/X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C15</t>
+    <t xml:space="preserve">C17</t>
   </si>
   <si>
     <t xml:space="preserve">100UF 8MM</t>
@@ -458,10 +452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,370 +496,366 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>41</v>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>64</v>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -874,58 +864,57 @@
         <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>75</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>34</v>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="4"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,13 +922,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,41 +936,42 @@
         <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>11</v>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="D32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -990,13 +980,13 @@
         <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" s="4"/>
     </row>
@@ -1005,87 +995,71 @@
         <v>91</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="4"/>
+      <c r="E37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>9</v>
+      <c r="D38" s="4"/>
+      <c r="E38" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="7" t="s">
         <v>99</v>
       </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="link"/>
     <hyperlink ref="E4" r:id="rId2" display="link"/>
     <hyperlink ref="E5" r:id="rId3" display="link"/>
-    <hyperlink ref="E9" r:id="rId4" display="link"/>
-    <hyperlink ref="E10" r:id="rId5" display="link"/>
-    <hyperlink ref="E11" r:id="rId6" display="link"/>
-    <hyperlink ref="E14" r:id="rId7" display="link"/>
-    <hyperlink ref="E15" r:id="rId8" display="link"/>
-    <hyperlink ref="E38" r:id="rId9" display="link"/>
-    <hyperlink ref="E39" r:id="rId10" display="angie@szomk.com.cn"/>
+    <hyperlink ref="E8" r:id="rId4" display="link"/>
+    <hyperlink ref="E9" r:id="rId5" display="link"/>
+    <hyperlink ref="E10" r:id="rId6" display="link"/>
+    <hyperlink ref="E13" r:id="rId7" display="link"/>
+    <hyperlink ref="E37" r:id="rId8" display="link"/>
+    <hyperlink ref="E38" r:id="rId9" display="angie@szomk.com.cn"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -34,19 +34,19 @@
     <t xml:space="preserve">IC2</t>
   </si>
   <si>
-    <t xml:space="preserve">AP63200WU-7 </t>
+    <t xml:space="preserve">AP63201WU-7 </t>
   </si>
   <si>
     <t xml:space="preserve">SOT23-6</t>
   </si>
   <si>
-    <t xml:space="preserve">AP63201 ??</t>
+    <t xml:space="preserve">AP63200 OLD</t>
   </si>
   <si>
     <t xml:space="preserve">IC3,4</t>
   </si>
   <si>
-    <t xml:space="preserve">HCPL-181-00BE (PC357N)</t>
+    <t xml:space="preserve">HCPL-181-00DE (PC357N1–10)</t>
   </si>
   <si>
     <t xml:space="preserve">SM MINI FLAT</t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">ALUMINUM ENCLOSURE</t>
   </si>
   <si>
-    <t xml:space="preserve">AK-C-A16 24(H)X80(W)X90(L) MM COLOR BLUE CUSTOM 66(L) MM</t>
+    <t xml:space="preserve">AK-C-A16 24(H)X80(W)X90(L) MM COLOR BLUE CUSTOM 68.7(L) MM</t>
   </si>
   <si>
     <t xml:space="preserve">angie@szomk.com.cn</t>
@@ -319,7 +319,7 @@
     <t xml:space="preserve">PCB</t>
   </si>
   <si>
-    <t xml:space="preserve">FR4 1.6MM 1ozCu 59.7(W)X65.4(L) MM (2350X2575MIL) BLUE MASK</t>
+    <t xml:space="preserve">FR4 1.6MM 1ozCu 59.7(W)X65.4(L) MM (2350X2575MIL)</t>
   </si>
 </sst>
 </file>
@@ -454,8 +454,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">(150R @100MHZ) REFERENCE</t>
   </si>
   <si>
-    <t xml:space="preserve">C1,8,21,22,27,30</t>
+    <t xml:space="preserve">C1,8,21,22,27,32</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">0603</t>
   </si>
   <si>
-    <t xml:space="preserve">C2,5,7,10,12,15,16,18,19,20,23,24,25,26,28,29,31</t>
+    <t xml:space="preserve">C2,5,7,10,12,15,16,18,19,20,23,24,25,26,31</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -205,7 +205,7 @@
     <t xml:space="preserve">22PF X5R/X7R</t>
   </si>
   <si>
-    <t xml:space="preserve">C6,</t>
+    <t xml:space="preserve">C6,28,29,30,33,34,35</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">22R 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R3,8,10,12,14,16,17,24,31,32</t>
+    <t xml:space="preserve">R3,8,10,12,14,16,17,22,27,28</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -277,25 +277,19 @@
     <t xml:space="preserve">2K2 5%</t>
   </si>
   <si>
-    <t xml:space="preserve">R18,20,25,27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10R 1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19,26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3R 1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R21,22,28,29</t>
+    <t xml:space="preserve">R18,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.9R 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19,20,24,25</t>
   </si>
   <si>
     <t xml:space="preserve">50R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">R23,30</t>
+    <t xml:space="preserve">R21,26</t>
   </si>
   <si>
     <t xml:space="preserve">10R 5%</t>
@@ -335,6 +329,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -350,6 +345,65 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -357,31 +411,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -389,50 +419,28 @@
       <color rgb="FF0000EE"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -441,30 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -482,6 +466,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -533,55 +541,55 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -626,23 +634,23 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 17" xfId="20"/>
+    <cellStyle name="Accent 16" xfId="21"/>
+    <cellStyle name="Accent 2 18" xfId="22"/>
+    <cellStyle name="Accent 3 19" xfId="23"/>
+    <cellStyle name="Bad 13" xfId="24"/>
+    <cellStyle name="Error 15" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 11" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Hyperlink 9" xfId="31"/>
+    <cellStyle name="Neutral 12" xfId="32"/>
+    <cellStyle name="Note 7" xfId="33"/>
+    <cellStyle name="Status 10" xfId="34"/>
+    <cellStyle name="Text 6" xfId="35"/>
+    <cellStyle name="Warning 14" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -712,17 +720,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:H39"/>
+  <dimension ref="C1:H38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="72.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
@@ -1212,13 +1220,13 @@
         <v>85</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -1227,7 +1235,7 @@
         <v>87</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>88</v>
@@ -1242,74 +1250,59 @@
         <v>89</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>90</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="4" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="G36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>33</v>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>10</v>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="H37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>1</v>
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="G38" s="6"/>
       <c r="H38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="0"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1320,8 +1313,8 @@
     <hyperlink ref="G9" r:id="rId5" display="link"/>
     <hyperlink ref="G10" r:id="rId6" display="link"/>
     <hyperlink ref="G13" r:id="rId7" display="link"/>
-    <hyperlink ref="G37" r:id="rId8" display="link"/>
-    <hyperlink ref="G38" r:id="rId9" display="angie@szomk.com.cn"/>
+    <hyperlink ref="G36" r:id="rId8" display="link"/>
+    <hyperlink ref="G37" r:id="rId9" display="angie@szomk.com.cn"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">QFN-44</t>
   </si>
   <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
     <t xml:space="preserve">IC2</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t xml:space="preserve">SOT23-6</t>
   </si>
   <si>
-    <t xml:space="preserve">AP63200 OLD</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">IC3,4</t>
@@ -52,45 +55,42 @@
     <t xml:space="preserve">SM MINI FLAT</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA226AIDGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSOP-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">link</t>
   </si>
   <si>
-    <t xml:space="preserve">IC5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INA226AIDGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSSOP-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-20</t>
-  </si>
-  <si>
     <t xml:space="preserve">D1,2,3,4</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
     <t xml:space="preserve">B5817W</t>
   </si>
   <si>
     <t xml:space="preserve">SOD123</t>
   </si>
   <si>
-    <t xml:space="preserve">REFERENCE</t>
-  </si>
-  <si>
     <t xml:space="preserve">LED1</t>
   </si>
   <si>
@@ -127,6 +127,9 @@
     <t xml:space="preserve">PUSH BUTTON TACTILE SWITCH 6X6X9MM R/A</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">CON1</t>
   </si>
   <si>
@@ -142,7 +145,7 @@
     <t xml:space="preserve">CON3</t>
   </si>
   <si>
-    <t xml:space="preserve">CONNECTOR RF SMA R/A EOCT-WF1320 57001579</t>
+    <t xml:space="preserve">CONNECTOR RF SMA R/A FEMALE 20MM</t>
   </si>
   <si>
     <t xml:space="preserve">CON4</t>
@@ -160,10 +163,13 @@
     <t xml:space="preserve">(KF2EDGR)15EDGRC-3.81-10P (HEADER RA) + (KF2EDGK)15EDGK-3.81-10P (PLUG)</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">L1</t>
   </si>
   <si>
-    <t xml:space="preserve">CDRH127R 6.8UH INDUCTOR 12X12MM SHIELDED</t>
+    <t xml:space="preserve">CDRH127R 10UH INDUCTOR 12X12MM SHIELDED</t>
   </si>
   <si>
     <t xml:space="preserve">L2,3</t>
@@ -175,13 +181,10 @@
     <t xml:space="preserve">0805</t>
   </si>
   <si>
-    <t xml:space="preserve">(150R @100MHZ) REFERENCE</t>
-  </si>
-  <si>
     <t xml:space="preserve">C1,8,21,22,27,32</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">10UF X5R/X7R</t>
@@ -193,7 +196,7 @@
     <t xml:space="preserve">C2,5,7,10,12,15,16,18,19,20,23,24,25,26,31</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">100NF X5R/X7R</t>
@@ -208,7 +211,7 @@
     <t xml:space="preserve">C6,28,29,30,33,34,35</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">1UF X5R/X7R</t>
@@ -289,6 +292,9 @@
     <t xml:space="preserve">50R 1%</t>
   </si>
   <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
     <t xml:space="preserve">R21,26</t>
   </si>
   <si>
@@ -301,19 +307,22 @@
     <t xml:space="preserve">868MHZ 5DBI SMA-MALE WHIP</t>
   </si>
   <si>
+    <t xml:space="preserve">OK ???</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALUMINUM ENCLOSURE</t>
   </si>
   <si>
-    <t xml:space="preserve">AK-C-A16 24(H)X80(W)X90(L) MM COLOR BLUE CUSTOM 68.7(L) MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angie@szomk.com.cn</t>
+    <t xml:space="preserve">AK-C-A16 24(H)X80(W)X90(L) MM CUSTOM 68.7(L) MM</t>
   </si>
   <si>
     <t xml:space="preserve">PCB</t>
   </si>
   <si>
-    <t xml:space="preserve">FR4 1.6MM 1ozCu 59.7(W)X65.4(L) MM (2350X2575MIL)</t>
+    <t xml:space="preserve">FR4 1.6MM 1ozCu 59.7(W)X65.6(L) MM (2350X2700MIL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAZER CUTTING</t>
   </si>
 </sst>
 </file>
@@ -720,601 +729,679 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:H38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="47.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="72.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="72.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="F37" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="0"/>
+      <c r="C38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="link"/>
-    <hyperlink ref="G4" r:id="rId2" display="link"/>
-    <hyperlink ref="G5" r:id="rId3" display="link"/>
-    <hyperlink ref="G8" r:id="rId4" display="link"/>
-    <hyperlink ref="G9" r:id="rId5" display="link"/>
-    <hyperlink ref="G10" r:id="rId6" display="link"/>
-    <hyperlink ref="G13" r:id="rId7" display="link"/>
-    <hyperlink ref="G36" r:id="rId8" display="link"/>
-    <hyperlink ref="G37" r:id="rId9" display="angie@szomk.com.cn"/>
+    <hyperlink ref="E5" r:id="rId1" display="link"/>
+    <hyperlink ref="E10" r:id="rId2" display="link"/>
+    <hyperlink ref="E13" r:id="rId3" display="link"/>
+    <hyperlink ref="E36" r:id="rId4" display="link"/>
+    <hyperlink ref="E37" r:id="rId5" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="98">
   <si>
     <t xml:space="preserve">IC1</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">QFN-44</t>
   </si>
   <si>
-    <t xml:space="preserve">OK</t>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">IC2</t>
@@ -43,48 +43,45 @@
     <t xml:space="preserve">SOT23-6</t>
   </si>
   <si>
+    <t xml:space="preserve">IC3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCPL-181-00DE (PC357N1–10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM MINI FLAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC5,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA226AIDGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSSOP-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SM-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1,2,3,4</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">IC3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCPL-181-00DE (PC357N1–10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM MINI FLAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC5,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INA226AIDGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSSOP-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAK4200 LORA MODULE EU868MHZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1,2,3,4</t>
-  </si>
-  <si>
     <t xml:space="preserve">B5817W</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t xml:space="preserve">PUSH BUTTON TACTILE SWITCH 6X6X9MM R/A</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">CON1</t>
   </si>
   <si>
@@ -163,63 +157,66 @@
     <t xml:space="preserve">(KF2EDGR)15EDGRC-3.81-10P (HEADER RA) + (KF2EDGK)15EDGK-3.81-10P (PLUG)</t>
   </si>
   <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDRH127R 10UH INDUCTOR 12X12MM SHIELDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMZ2012Y152B FERRITE BEAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X ?????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1,8,21,22,27,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10UF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2,5,7,10,12,15,16,18,19,20,23,24,25,26,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100NF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22PF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6,28,29,30,33,34,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1UF X5R/X7R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9,13,14</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDRH127R 10UH INDUCTOR 12X12MM SHIELDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMZ2012Y152B FERRITE BEAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1,8,21,22,27,32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10UF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2,5,7,10,12,15,16,18,19,20,23,24,25,26,31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100NF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22PF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6,28,29,30,33,34,35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1UF X5R/X7R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9,13,14</t>
-  </si>
-  <si>
     <t xml:space="preserve">22UF X7R</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
     <t xml:space="preserve">50R 1%</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
     <t xml:space="preserve">R21,26</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
   </si>
   <si>
     <t xml:space="preserve">868MHZ 5DBI SMA-MALE WHIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK ???</t>
   </si>
   <si>
     <t xml:space="preserve">ALUMINUM ENCLOSURE</t>
@@ -732,7 +723,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -742,8 +733,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="72.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +749,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
@@ -776,623 +766,605 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
+      <c r="F2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+      <c r="F3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
+      <c r="F4" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
+      <c r="F14" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E18" s="4"/>
+      <c r="F18" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4"/>
+      <c r="F22" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E24" s="4"/>
+      <c r="F24" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="4"/>
+      <c r="F26" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="1" t="s">
-        <v>90</v>
+      <c r="F33" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/eagle/BOM.xlsx
+++ b/eagle/BOM.xlsx
@@ -310,7 +310,7 @@
     <t xml:space="preserve">PCB</t>
   </si>
   <si>
-    <t xml:space="preserve">FR4 1.6MM 1ozCu 59.7(W)X65.6(L) MM (2350X2700MIL)</t>
+    <t xml:space="preserve">FR4 1.6MM 1ozCu 59.7(W)X68.6(L) MM (2350X2700MIL)</t>
   </si>
   <si>
     <t xml:space="preserve">LAZER CUTTING</t>
@@ -722,8 +722,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
